--- a/Document/Database.xlsx
+++ b/Document/Database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Nhân viên</t>
   </si>
@@ -19,30 +19,30 @@
     <t>Khách hàng</t>
   </si>
   <si>
+    <t>Nhà sản xuất</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Thể loại</t>
   </si>
   <si>
-    <t>Nhà sản xuất</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
-    <t>Tên</t>
-  </si>
-  <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Mật khẩu</t>
   </si>
   <si>
@@ -61,6 +61,9 @@
     <t>0 : Nhân viên</t>
   </si>
   <si>
+    <t>Token</t>
+  </si>
+  <si>
     <t>1 : Quản lí</t>
   </si>
   <si>
@@ -122,6 +125,12 @@
   </si>
   <si>
     <t>ID_thể loại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_nhân viên </t>
+  </si>
+  <si>
+    <t>(nhân viên đã duyệt đơn)</t>
   </si>
   <si>
     <t>Tình trạng đơn</t>
@@ -226,6 +235,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -249,22 +269,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -278,59 +287,62 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,11 +561,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.63"/>
-    <col customWidth="1" min="2" max="2" width="18.38"/>
+    <col customWidth="1" min="2" max="2" width="25.38"/>
     <col customWidth="1" min="3" max="3" width="13.63"/>
     <col customWidth="1" min="4" max="4" width="19.38"/>
     <col customWidth="1" min="5" max="5" width="13.88"/>
-    <col customWidth="1" min="6" max="6" width="11.38"/>
+    <col customWidth="1" min="6" max="6" width="14.0"/>
     <col customWidth="1" min="7" max="7" width="16.75"/>
     <col customWidth="1" min="8" max="8" width="15.5"/>
     <col customWidth="1" min="9" max="9" width="15.38"/>
@@ -570,61 +582,52 @@
         <v>1</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="10" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -632,16 +635,16 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="6"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -649,66 +652,72 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="6"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="6"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="6"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3"/>
@@ -717,29 +726,31 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="6"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
-        <v>16</v>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -749,7 +760,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="3"/>
@@ -762,168 +773,168 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="6"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>17</v>
+      <c r="A13" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="15" t="s">
-        <v>18</v>
+      <c r="D13" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
-        <v>19</v>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="6"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="16"/>
+      <c r="A14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="18"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="16"/>
+      <c r="D14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="18"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="9" t="s">
-        <v>4</v>
+      <c r="G14" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="6"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="16"/>
+      <c r="A15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="18"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="16"/>
+      <c r="D15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="18"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="9" t="s">
-        <v>6</v>
+      <c r="G15" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="16"/>
+      <c r="A16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="18"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="16"/>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="18"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="9" t="s">
-        <v>24</v>
+      <c r="G16" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="6"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="16"/>
+      <c r="A17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="18"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="16"/>
+      <c r="D17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="18"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="6"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="16"/>
+      <c r="A18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="18"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="16"/>
+      <c r="D18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="18"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="9" t="s">
-        <v>29</v>
+      <c r="G18" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="6"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="16"/>
+      <c r="A19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="18"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="E19" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="9" t="s">
-        <v>33</v>
+      <c r="G19" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="6"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="16"/>
+      <c r="A20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="18"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="18"/>
+      <c r="D20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="20"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="10" t="s">
-        <v>36</v>
+      <c r="G20" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="6"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="11" t="s">
         <v>38</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -933,12 +944,14 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="6"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="20" t="s">
-        <v>39</v>
+      <c r="A22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -948,12 +961,12 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="6"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="20" t="s">
-        <v>40</v>
+      <c r="A23" s="18"/>
+      <c r="B23" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -963,31 +976,31 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="6"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="18"/>
-      <c r="B24" s="21" t="s">
-        <v>41</v>
+      <c r="B24" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="22" t="s">
-        <v>42</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="6"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="9" t="s">
-        <v>21</v>
+      <c r="D25" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -995,14 +1008,14 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="6"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="9" t="s">
-        <v>23</v>
+      <c r="D26" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1010,14 +1023,14 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="6"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="10" t="s">
-        <v>43</v>
+      <c r="D27" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1025,19 +1038,22 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="6"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="6"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="3"/>
@@ -1049,7 +1065,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="6"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="3"/>
@@ -1061,7 +1077,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="6"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="3"/>
@@ -1073,11 +1089,10 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="6"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1086,7 +1101,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="6"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="3"/>
@@ -1099,386 +1114,398 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="6"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" ht="14.25" customHeight="1"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+    </row>
     <row r="64" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
@@ -2416,15 +2443,20 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <printOptions/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk man="1"/>
+    <brk id="7" man="1"/>
+  </colBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/Database.xlsx
+++ b/Document/Database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t xml:space="preserve">Nhân viên</t>
   </si>
@@ -58,112 +58,145 @@
     <t xml:space="preserve">Ngày sinh</t>
   </si>
   <si>
+    <t xml:space="preserve">Giới tính</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ảnh </t>
   </si>
   <si>
+    <t xml:space="preserve">Cấp độ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 : Nhân viên</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ảnh</t>
   </si>
   <si>
-    <t xml:space="preserve">Cấp độ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Nhân viên</t>
+    <t xml:space="preserve">1 : Quản lí</t>
   </si>
   <si>
     <t xml:space="preserve">Token</t>
   </si>
   <si>
-    <t xml:space="preserve">1 : Quản lí</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hóa đơn</t>
   </si>
   <si>
+    <t xml:space="preserve">Sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhóm cấu hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ người nhận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mô tả</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên người nhận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cấu hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SĐT người nhận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời gian đặt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số lượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_nhóm cấu hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng tiền hóa đơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã bán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_nhân viên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(nhân viên đã duyệt đơn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xuất xứ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tình trạng đơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: Đang chờ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày ra mắt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cấu hình chi tiết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Đã duyệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_nhà sản xuất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: Bị Hủy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_thể loại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Cấu hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3: Đang giao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4: Đã giao</t>
+  </si>
+  <si>
     <t xml:space="preserve">Đánh giá</t>
   </si>
   <si>
-    <t xml:space="preserve">Sản phẩm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_khách hàng</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID_hóa đơn</t>
   </si>
   <si>
-    <t xml:space="preserve">Địa chỉ người nhận</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID_sản phẩm</t>
   </si>
   <si>
-    <t xml:space="preserve">Mô tả</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên người nhận</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tên người đánh giá</t>
   </si>
   <si>
-    <t xml:space="preserve">SĐT người nhận</t>
+    <t xml:space="preserve">Hóa đơn chi tiết</t>
   </si>
   <si>
     <t xml:space="preserve">Nhận xét</t>
   </si>
   <si>
-    <t xml:space="preserve">Giá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thời gian đặt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chất lượng</t>
   </si>
   <si>
     <t xml:space="preserve">Từ 1 --&gt; 5</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_nhà sản xuất</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tổng tiền hóa đơn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thời gian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_thể loại</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_nhân viên </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(nhân viên đã duyệt đơn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tình trạng đơn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0: Đang chờ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Đã duyệt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2: Bị Hủy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3: Đang giao </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4: Đã giao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hóa đơn chi tiết</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Số lượng</t>
   </si>
 </sst>
 </file>
@@ -233,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -269,6 +302,27 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -295,7 +349,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,8 +394,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -369,22 +443,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1002"/>
+  <dimension ref="A1:K1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="10" style="0" width="7.63"/>
   </cols>
@@ -516,7 +590,7 @@
       <c r="B8" s="7"/>
       <c r="C8" s="2"/>
       <c r="D8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="10" t="s">
@@ -530,15 +604,15 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="2"/>
       <c r="D9" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -553,7 +627,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="2"/>
@@ -565,12 +639,13 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -580,8 +655,8 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -593,37 +668,29 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="9"/>
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="9" t="s">
-        <v>3</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -632,17 +699,15 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="2"/>
       <c r="D15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -651,17 +716,15 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="2"/>
       <c r="D16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -670,18 +733,14 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>24</v>
+      </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -689,17 +748,15 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="9" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -708,19 +765,15 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>3</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -729,17 +782,15 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10" t="s">
-        <v>37</v>
+      <c r="D20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -748,16 +799,16 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B21" s="9"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="D21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -765,31 +816,37 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="12" t="s">
-        <v>42</v>
+      <c r="A23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -797,14 +854,17 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9"/>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -812,45 +872,45 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9"/>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="13" t="s">
-        <v>45</v>
+      <c r="A26" s="9"/>
+      <c r="B26" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -861,11 +921,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -876,11 +932,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -888,11 +940,12 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
+      <c r="A30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -900,11 +953,13 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
+      <c r="A31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="9"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -912,11 +967,13 @@
       <c r="K31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
+      <c r="A32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="9"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -924,11 +981,13 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
+      <c r="A33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -936,12 +995,15 @@
       <c r="K33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -949,12 +1011,15 @@
       <c r="K34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="9"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -962,25 +1027,33 @@
       <c r="K35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="A36" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
       <c r="K36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -993,7 +1066,6 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -1338,7 +1410,19 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+    </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2276,11 +2360,12 @@
     <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1001" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1002" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Document/Database.xlsx
+++ b/Document/Database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t xml:space="preserve">Nhân viên</t>
   </si>
@@ -197,6 +197,45 @@
   </si>
   <si>
     <t xml:space="preserve">Thời gian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sản phầm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id_nhóm cấu hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dung lượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id_Sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id_cấu hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gía trị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDR4</t>
   </si>
 </sst>
 </file>
@@ -206,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -251,6 +290,22 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -266,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -323,6 +378,55 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -349,7 +453,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -424,6 +528,74 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -445,11 +617,11 @@
   </sheetPr>
   <dimension ref="A1:K1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26:G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.38"/>
@@ -1087,9 +1259,11 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -1100,9 +1274,13 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="B41" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="21"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -1113,10 +1291,13 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="B42" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="21"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -1126,9 +1307,9 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -1139,9 +1320,11 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="B44" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -1152,9 +1335,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="21"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -1165,9 +1352,13 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="21"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -1178,9 +1369,9 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -1191,9 +1382,9 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -1204,9 +1395,11 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="B49" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -1217,9 +1410,15 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="B50" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>64</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -1230,9 +1429,15 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="B51" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="27" t="n">
+        <v>1</v>
+      </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -1243,9 +1448,15 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="B52" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -1256,9 +1467,9 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -1269,9 +1480,11 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="B54" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -1282,9 +1495,15 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="B55" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>69</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -1295,9 +1514,15 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="B56" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>70</v>
+      </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -1308,9 +1533,15 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="B57" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>

--- a/Document/Database.xlsx
+++ b/Document/Database.xlsx
@@ -136,7 +136,7 @@
     <t xml:space="preserve">Tình trạng đơn</t>
   </si>
   <si>
-    <t xml:space="preserve">0: Đang chờ </t>
+    <t xml:space="preserve">0: Bị Hủy</t>
   </si>
   <si>
     <t xml:space="preserve">Ngày ra mắt</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Cấu hình chi tiết</t>
   </si>
   <si>
-    <t xml:space="preserve">1: Đã duyệt</t>
+    <t xml:space="preserve">1: Đang chờ</t>
   </si>
   <si>
     <t xml:space="preserve">ID_nhà sản xuất</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">ID_Sản phẩm</t>
   </si>
   <si>
-    <t xml:space="preserve">2: Bị Hủy</t>
+    <t xml:space="preserve">2: Đã duyệt</t>
   </si>
   <si>
     <t xml:space="preserve">ID_thể loại</t>
@@ -617,11 +617,11 @@
   </sheetPr>
   <dimension ref="A1:K1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.38"/>
@@ -1008,7 +1008,7 @@
       <c r="A23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="2"/>
